--- a/docentes/Rivera Cruz Ezequiel - Estadisticos 2020.xlsx
+++ b/docentes/Rivera Cruz Ezequiel - Estadisticos 2020.xlsx
@@ -1021,7 +1021,7 @@
         <v>14</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1044,7 +1044,7 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1067,7 +1067,7 @@
         <v>14</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Rivera Cruz Ezequiel - Estadisticos 2020.xlsx
+++ b/docentes/Rivera Cruz Ezequiel - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
   <si>
     <t>Mat</t>
   </si>
@@ -49,9 +49,6 @@
     <t>TEMAS DE BIOLOGÍA CONTEMPORÁNEA</t>
   </si>
   <si>
-    <t>DESARROLLA APLICACIONES MÓVILES PARA ANDROID</t>
-  </si>
-  <si>
     <t>4AEM</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>6ALCM</t>
   </si>
   <si>
-    <t>6APM</t>
-  </si>
-  <si>
     <t>6BLCM</t>
   </si>
   <si>
@@ -83,33 +77,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>BARRAGAN</t>
-  </si>
-  <si>
-    <t>BRAVO</t>
-  </si>
-  <si>
-    <t>ARENAS</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>JOSUA</t>
-  </si>
-  <si>
-    <t>MELANI DARIANA</t>
-  </si>
-  <si>
-    <t>PATRICIA MARLENE</t>
   </si>
 </sst>
 </file>
@@ -467,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,7 +474,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>39</v>
@@ -533,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>37</v>
@@ -559,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>36</v>
@@ -582,53 +549,27 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>40.91</v>
+        <v>91.43000000000001</v>
       </c>
       <c r="H5">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>35</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>32</v>
-      </c>
-      <c r="G6">
-        <v>91.43000000000001</v>
-      </c>
-      <c r="H6">
         <v>7.2</v>
       </c>
     </row>
@@ -639,7 +580,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -679,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>39</v>
@@ -702,7 +643,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>37</v>
@@ -725,7 +666,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>36</v>
@@ -745,47 +686,24 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>35</v>
-      </c>
-      <c r="D6">
-        <v>35</v>
-      </c>
-      <c r="E6">
-        <v>35</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
         <v>0</v>
       </c>
     </row>
@@ -796,7 +714,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -836,7 +754,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>39</v>
@@ -862,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>37</v>
@@ -888,7 +806,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>36</v>
@@ -911,53 +829,27 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>40.91</v>
+        <v>91.43000000000001</v>
       </c>
       <c r="H5">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>35</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>32</v>
-      </c>
-      <c r="G6">
-        <v>91.43000000000001</v>
-      </c>
-      <c r="H6">
         <v>7.2</v>
       </c>
     </row>
@@ -968,7 +860,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -980,94 +872,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>18330051920366</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>18330051920354</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>18330051920357</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Rivera Cruz Ezequiel - Estadisticos 2020.xlsx
+++ b/docentes/Rivera Cruz Ezequiel - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
   <si>
     <t>Mat</t>
   </si>
@@ -77,6 +77,24 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>TEMOXTLE</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>OLMEDO</t>
+  </si>
+  <si>
+    <t>MADAI</t>
+  </si>
+  <si>
+    <t>PAOLA BETSABET</t>
   </si>
 </sst>
 </file>
@@ -480,10 +498,10 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>31</v>
@@ -492,7 +510,7 @@
         <v>79.48999999999999</v>
       </c>
       <c r="H2">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -532,10 +550,10 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>31</v>
@@ -544,7 +562,7 @@
         <v>86.11</v>
       </c>
       <c r="H4">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -626,16 +644,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>71.79000000000001</v>
+      </c>
+      <c r="H2">
+        <v>7.6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -649,16 +670,19 @@
         <v>37</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>67.56999999999999</v>
+      </c>
+      <c r="H3">
+        <v>6.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -672,16 +696,19 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>86.11</v>
+      </c>
+      <c r="H4">
+        <v>7.7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -695,16 +722,19 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>74.29000000000001</v>
+      </c>
+      <c r="H5">
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>
@@ -760,19 +790,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>7</v>
       </c>
       <c r="F2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>79.48999999999999</v>
+        <v>82.05</v>
       </c>
       <c r="H2">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -798,7 +828,7 @@
         <v>78.38</v>
       </c>
       <c r="H3">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -812,19 +842,19 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4">
-        <v>86.11</v>
+        <v>91.67</v>
       </c>
       <c r="H4">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -850,7 +880,7 @@
         <v>91.43000000000001</v>
       </c>
       <c r="H5">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -860,7 +890,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -893,6 +923,52 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>18330051920306</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920429</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Rivera Cruz Ezequiel - Estadisticos 2020.xlsx
+++ b/docentes/Rivera Cruz Ezequiel - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>Mat</t>
   </si>
@@ -79,16 +79,43 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
     <t>TEMOXTLE</t>
   </si>
   <si>
     <t>GUERRA</t>
   </si>
   <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
     <t>LARA</t>
   </si>
   <si>
     <t>OLMEDO</t>
+  </si>
+  <si>
+    <t>HAZIEL</t>
+  </si>
+  <si>
+    <t>ALEXA</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
   </si>
   <si>
     <t>MADAI</t>
@@ -890,7 +917,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -925,22 +952,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920306</v>
+        <v>19330051920011</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -948,25 +975,94 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920429</v>
+        <v>18330051920281</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330051920309</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920306</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>18330051920429</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Rivera Cruz Ezequiel - Estadisticos 2020.xlsx
+++ b/docentes/Rivera Cruz Ezequiel - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>Mat</t>
   </si>
@@ -91,9 +91,6 @@
     <t>TEMOXTLE</t>
   </si>
   <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
     <t>AGUILAR</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>LARA</t>
   </si>
   <si>
-    <t>OLMEDO</t>
-  </si>
-  <si>
     <t>HAZIEL</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
   </si>
   <si>
     <t>MADAI</t>
-  </si>
-  <si>
-    <t>PAOLA BETSABET</t>
   </si>
 </sst>
 </file>
@@ -749,19 +740,19 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5">
-        <v>74.29000000000001</v>
+        <v>77.14</v>
       </c>
       <c r="H5">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
     </row>
   </sheetData>
@@ -917,7 +908,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -958,10 +949,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -981,10 +972,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -1004,10 +995,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1027,10 +1018,10 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1039,29 +1030,6 @@
         <v>12</v>
       </c>
       <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18330051920429</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Rivera Cruz Ezequiel - Estadisticos 2020.xlsx
+++ b/docentes/Rivera Cruz Ezequiel - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>Mat</t>
   </si>
@@ -88,9 +88,6 @@
     <t>VALENCIA</t>
   </si>
   <si>
-    <t>TEMOXTLE</t>
-  </si>
-  <si>
     <t>AGUILAR</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>TORRES</t>
   </si>
   <si>
-    <t>LARA</t>
-  </si>
-  <si>
     <t>HAZIEL</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
   </si>
   <si>
     <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>MADAI</t>
   </si>
 </sst>
 </file>
@@ -714,16 +705,16 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>86.11</v>
+        <v>88.89</v>
       </c>
       <c r="H4">
         <v>7.7</v>
@@ -872,7 +863,7 @@
         <v>91.67</v>
       </c>
       <c r="H4">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -908,7 +899,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -949,10 +940,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -972,10 +963,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -995,10 +986,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1008,29 +999,6 @@
       </c>
       <c r="G4">
         <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>18330051920306</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
